--- a/data/trans_orig/IP22D1_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22D1_2023_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D1C6D74-CD9E-4119-B853-2E077682D948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB3C3F68-F0E4-48F8-A6E6-3265A9E14982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{189ED595-1A88-43F4-9E45-CF4F4B210DD8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F52E4F75-F9E7-4DB7-81CB-F9CE05D1C6F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>NO</t>
@@ -86,7 +86,7 @@
     <t>69,43%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -98,7 +98,7 @@
     <t>92,94%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>91,73%</t>
@@ -110,7 +110,7 @@
     <t>95,66%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -552,7 +552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4B8FA2-1DA9-48B7-946A-41FFA8109B78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87947E1-4D13-4299-BC92-B425302377D3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D1_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22D1_2023_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB3C3F68-F0E4-48F8-A6E6-3265A9E14982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE57D4A-131F-4ABB-A9E0-EC5FAB41CB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F52E4F75-F9E7-4DB7-81CB-F9CE05D1C6F4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A1B96630-A79B-4F16-96FC-F9F9FBF24F4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
   <si>
     <t>Menores que, necesitando atención sanitaria médica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,76 +65,67 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>90,01%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
     <t>93,43%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>79,25%</t>
+  </si>
+  <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
     <t>92,68%</t>
   </si>
   <si>
+    <t>97,01%</t>
+  </si>
+  <si>
     <t>97,05%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
   </si>
   <si>
     <t>98,5%</t>
@@ -552,8 +543,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87947E1-4D13-4299-BC92-B425302377D3}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C7C579-0126-4DD7-8758-7F1B4E872413}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -670,10 +661,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>671</v>
+        <v>10828</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -685,10 +676,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>1983</v>
+        <v>10225</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -700,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>2654</v>
+        <v>21054</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -721,10 +712,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>671</v>
+        <v>10828</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
@@ -736,10 +727,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>1983</v>
+        <v>10225</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -751,10 +742,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="N5" s="7">
-        <v>2654</v>
+        <v>21054</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -774,10 +765,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>8671</v>
+        <v>20432</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -789,10 +780,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>8637</v>
+        <v>17222</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
@@ -804,10 +795,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>17308</v>
+        <v>37654</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
@@ -825,10 +816,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>8671</v>
+        <v>20432</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -840,10 +831,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>8637</v>
+        <v>17222</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -855,10 +846,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N7" s="7">
-        <v>17308</v>
+        <v>37654</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -878,10 +869,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>16364</v>
+        <v>11806</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -893,10 +884,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>17017</v>
+        <v>11701</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -908,10 +899,10 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N8" s="7">
-        <v>33381</v>
+        <v>23507</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
@@ -929,10 +920,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>16364</v>
+        <v>11806</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -944,10 +935,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7">
-        <v>17017</v>
+        <v>11701</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -959,10 +950,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N9" s="7">
-        <v>33381</v>
+        <v>23507</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -982,46 +973,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>10467</v>
+        <v>5099</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>17</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>16</v>
-      </c>
       <c r="I10" s="7">
-        <v>11551</v>
+        <v>14124</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
         <v>25</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>28</v>
-      </c>
       <c r="N10" s="7">
-        <v>22018</v>
+        <v>19223</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1033,10 +1024,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>10467</v>
+        <v>5099</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1048,10 +1039,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>11551</v>
+        <v>14124</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1063,10 +1054,10 @@
         <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N11" s="7">
-        <v>22018</v>
+        <v>19223</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1080,16 +1071,16 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>13244</v>
+        <v>48166</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
@@ -1101,10 +1092,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="I12" s="7">
-        <v>5172</v>
+        <v>53272</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
@@ -1116,10 +1107,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="N12" s="7">
-        <v>18416</v>
+        <v>101438</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>11</v>
@@ -1137,10 +1128,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D13" s="7">
-        <v>13244</v>
+        <v>48166</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -1152,10 +1143,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>5172</v>
+        <v>53272</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1167,10 +1158,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="N13" s="7">
-        <v>18416</v>
+        <v>101438</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
@@ -1183,120 +1174,15 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>64</v>
-      </c>
-      <c r="D14" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7">
-        <v>63</v>
-      </c>
-      <c r="I14" s="7">
-        <v>44360</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="7">
-        <v>127</v>
-      </c>
-      <c r="N14" s="7">
-        <v>93777</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>64</v>
-      </c>
-      <c r="D15" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>63</v>
-      </c>
-      <c r="I15" s="7">
-        <v>44360</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
-        <v>127</v>
-      </c>
-      <c r="N15" s="7">
-        <v>93777</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
